--- a/Study/21_study_REFramework_트렌젝션구조/Data/Input/휴폐업조회목록.xlsx
+++ b/Study/21_study_REFramework_트렌젝션구조/Data/Input/휴폐업조회목록.xlsx
@@ -5,26 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\GitHub\Study\21_study_REFramework_사업휴폐업과제적용\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\git\Study\21_study_REFramework_트렌젝션구조\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="휴폐업조회목록" sheetId="2" r:id="rId1"/>
+    <sheet name="휴폐업조회목록 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">휴폐업조회목록!$A$1:$C$67</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">휴폐업조회목록!$B$2:$B$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">휴폐업조회목록!$A$1:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'휴폐업조회목록 (2)'!$A$1:$C$67</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">휴폐업조회목록!$B$2:$B$11</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'휴폐업조회목록 (2)'!$B$2:$B$67</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">휴폐업조회목록!#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">'휴폐업조회목록 (2)'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="241">
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -862,30 +866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폐업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2016-01-01) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2023-01-31) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부가가치세 일반과세자 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2020-10-16) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -894,10 +874,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2016-02-03) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -906,10 +882,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2015-08-31) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유한회사 애니체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -942,10 +914,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2017-01-23) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>62</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1015,10 +983,6 @@
   </si>
   <si>
     <t>89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2020-04-03) 입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1033,7 +997,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -2216,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2258,12 +2222,8 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>210</v>
-      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -2275,12 +2235,8 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>211</v>
-      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -2292,12 +2248,8 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -2309,12 +2261,8 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2326,12 +2274,8 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -2343,12 +2287,8 @@
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -2360,12 +2300,8 @@
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -2377,12 +2313,8 @@
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -2394,12 +2326,8 @@
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -2411,12 +2339,229 @@
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" ht="18" customHeight="1">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" ht="18" customHeight="1">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" ht="18" customHeight="1">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" ht="18" customHeight="1">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" ht="18" customHeight="1">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="58.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -2428,12 +2573,8 @@
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1">
       <c r="A13" s="1" t="s">
@@ -2445,12 +2586,8 @@
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1">
       <c r="A14" s="1" t="s">
@@ -2462,12 +2599,8 @@
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="1" t="s">
@@ -2479,12 +2612,8 @@
       <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -2496,12 +2625,8 @@
       <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1">
       <c r="A17" s="1" t="s">
@@ -2513,12 +2638,8 @@
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1">
       <c r="A18" s="1" t="s">
@@ -2530,12 +2651,8 @@
       <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1">
       <c r="A19" s="1" t="s">
@@ -2547,12 +2664,8 @@
       <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1">
       <c r="A20" s="1" t="s">
@@ -2564,12 +2677,8 @@
       <c r="C20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1">
       <c r="A21" s="1" t="s">
@@ -2581,12 +2690,8 @@
       <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1">
       <c r="A22" s="1" t="s">
@@ -2598,12 +2703,8 @@
       <c r="C22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1">
       <c r="A23" s="1" t="s">
@@ -2615,12 +2716,8 @@
       <c r="C23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
       <c r="A24" s="1" t="s">
@@ -2632,12 +2729,8 @@
       <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1">
       <c r="A25" s="1" t="s">
@@ -2649,12 +2742,8 @@
       <c r="C25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1">
       <c r="A26" s="1" t="s">
@@ -2666,12 +2755,8 @@
       <c r="C26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1">
       <c r="A27" s="1" t="s">
@@ -2683,12 +2768,8 @@
       <c r="C27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>214</v>
-      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1">
       <c r="A28" s="1" t="s">
@@ -2700,12 +2781,8 @@
       <c r="C28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1">
       <c r="A29" s="1" t="s">
@@ -2717,12 +2794,8 @@
       <c r="C29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1">
       <c r="A30" s="1" t="s">
@@ -2734,12 +2807,8 @@
       <c r="C30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1">
       <c r="A31" s="1" t="s">
@@ -2751,16 +2820,12 @@
       <c r="C31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>91</v>
@@ -2768,12 +2833,8 @@
       <c r="C32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="18" customHeight="1">
       <c r="A33" s="1" t="s">
@@ -2785,12 +2846,8 @@
       <c r="C33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1">
       <c r="A34" s="1" t="s">
@@ -2802,16 +2859,12 @@
       <c r="C34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="18" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>99</v>
@@ -2819,12 +2872,8 @@
       <c r="C35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1">
       <c r="A36" s="1" t="s">
@@ -2836,12 +2885,8 @@
       <c r="C36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1">
       <c r="A37" s="1" t="s">
@@ -2853,16 +2898,12 @@
       <c r="C37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" ht="18" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>107</v>
@@ -2870,29 +2911,21 @@
       <c r="C38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" ht="18" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>220</v>
-      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="18" customHeight="1">
       <c r="A40" s="1" t="s">
@@ -2904,46 +2937,34 @@
       <c r="C40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="18" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" ht="18" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>213</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" ht="18" customHeight="1">
       <c r="A43" s="1" t="s">
@@ -2955,46 +2976,34 @@
       <c r="C43" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" ht="18" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" ht="18" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" ht="18" customHeight="1">
       <c r="A46" s="1" t="s">
@@ -3004,14 +3013,10 @@
         <v>125</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>213</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1">
       <c r="A47" s="1" t="s">
@@ -3023,12 +3028,8 @@
       <c r="C47" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1">
       <c r="A48" s="1" t="s">
@@ -3040,16 +3041,12 @@
       <c r="C48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" ht="18" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>132</v>
@@ -3057,12 +3054,8 @@
       <c r="C49" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1">
       <c r="A50" s="1" t="s">
@@ -3074,12 +3067,8 @@
       <c r="C50" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" ht="18" customHeight="1">
       <c r="A51" s="1" t="s">
@@ -3091,29 +3080,21 @@
       <c r="C51" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" ht="18" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" ht="18" customHeight="1">
       <c r="A53" s="1" t="s">
@@ -3125,29 +3106,21 @@
       <c r="C53" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>229</v>
-      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" ht="18" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>213</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" ht="18" customHeight="1">
       <c r="A55" s="1" t="s">
@@ -3159,12 +3132,8 @@
       <c r="C55" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="18" customHeight="1">
       <c r="A56" s="1" t="s">
@@ -3176,33 +3145,25 @@
       <c r="C56" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" ht="18" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>213</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>153</v>
@@ -3210,12 +3171,8 @@
       <c r="C58" s="4">
         <v>2118787229</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" ht="18" customHeight="1">
       <c r="A59" s="1" t="s">
@@ -3227,12 +3184,8 @@
       <c r="C59" s="4">
         <v>1098613640</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" ht="18" customHeight="1">
       <c r="A60" s="1" t="s">
@@ -3244,16 +3197,12 @@
       <c r="C60" s="4">
         <v>2108109233</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" ht="18" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>158</v>
@@ -3261,12 +3210,8 @@
       <c r="C61" s="4">
         <v>1208775747</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" ht="18" customHeight="1">
       <c r="A62" s="1" t="s">
@@ -3278,16 +3223,12 @@
       <c r="C62" s="4">
         <v>2158730728</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" ht="18" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>161</v>
@@ -3295,46 +3236,34 @@
       <c r="C63" s="4">
         <v>1208758845</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" ht="18" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C64" s="4">
         <v>2118166386</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" ht="18" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C65" s="4">
         <v>1058778008</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" ht="18" customHeight="1">
       <c r="A66" s="1" t="s">
@@ -3346,12 +3275,8 @@
       <c r="C66" s="4">
         <v>2158756295</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" ht="18" customHeight="1">
       <c r="A67" s="1" t="s">
@@ -3363,12 +3288,8 @@
       <c r="C67" s="4">
         <v>2208700833</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5" ht="18" customHeight="1">
       <c r="A68" s="1" t="s">
@@ -3380,33 +3301,25 @@
       <c r="C68" s="4">
         <v>5048173585</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C69" s="4">
         <v>1058780969</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>171</v>
@@ -3414,29 +3327,21 @@
       <c r="C70" s="4">
         <v>2208149421</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:5" ht="18" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C71" s="4">
         <v>1098164708</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" ht="18" customHeight="1">
       <c r="A72" s="1" t="s">
@@ -3448,12 +3353,8 @@
       <c r="C72" s="4">
         <v>1148614132</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5" ht="18" customHeight="1">
       <c r="A73" s="1" t="s">
@@ -3465,16 +3366,12 @@
       <c r="C73" s="4">
         <v>1068616895</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" ht="18" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>177</v>
@@ -3482,12 +3379,8 @@
       <c r="C74" s="4">
         <v>3288600052</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" ht="18" customHeight="1">
       <c r="A75" s="1" t="s">
@@ -3499,63 +3392,47 @@
       <c r="C75" s="4">
         <v>1208165010</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
     </row>
     <row r="76" spans="1:5" ht="18" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C76" s="4">
         <v>1058705617</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" ht="18" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C77" s="4">
         <v>1208786813</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" ht="18" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C78" s="4">
         <v>1208149233</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" ht="18" customHeight="1">
       <c r="A79" s="1" t="s">
@@ -3567,16 +3444,12 @@
       <c r="C79" s="4">
         <v>2148632139</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>184</v>
@@ -3584,16 +3457,12 @@
       <c r="C80" s="4">
         <v>5038169263</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>248</v>
-      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" ht="18" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>185</v>
@@ -3601,12 +3470,8 @@
       <c r="C81" s="4">
         <v>1238146399</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:5" ht="18" customHeight="1">
       <c r="A82" s="1" t="s">
@@ -3618,29 +3483,21 @@
       <c r="C82" s="4">
         <v>1048653399</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5" ht="18" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C83" s="4">
         <v>2158692649</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5" ht="18" customHeight="1">
       <c r="A84" s="1" t="s">
@@ -3652,12 +3509,8 @@
       <c r="C84" s="4">
         <v>1208819306</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" ht="18" customHeight="1">
       <c r="A85" s="1" t="s">
@@ -3669,12 +3522,8 @@
       <c r="C85" s="4">
         <v>1208781142</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5" ht="18" customHeight="1">
       <c r="A86" s="1" t="s">
@@ -3686,12 +3535,8 @@
       <c r="C86" s="4">
         <v>2208182416</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5" ht="18" customHeight="1">
       <c r="A87" s="1" t="s">
@@ -3703,12 +3548,8 @@
       <c r="C87" s="4">
         <v>2078107243</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" ht="18" customHeight="1">
       <c r="A88" s="1" t="s">
@@ -3720,12 +3561,8 @@
       <c r="C88" s="4">
         <v>1068625695</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" ht="18" customHeight="1">
       <c r="A89" s="1" t="s">
@@ -3737,12 +3574,8 @@
       <c r="C89" s="4">
         <v>1088174770</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" ht="18" customHeight="1">
       <c r="A90" s="1" t="s">
@@ -3754,12 +3587,8 @@
       <c r="C90" s="4">
         <v>1268647617</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1">
       <c r="A91" s="1" t="s">
@@ -3771,12 +3600,8 @@
       <c r="C91" s="4">
         <v>3178122366</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" spans="1:5" ht="18" customHeight="1">
       <c r="A92"/>
